--- a/backend/web/reports/rectal/rectal-list/templates/template_rectal_list_for_report.xlsx
+++ b/backend/web/reports/rectal/rectal-list/templates/template_rectal_list_for_report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>№ п/п</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Ветеринарный врач гинеколог</t>
-  </si>
-  <si>
-    <t>Швецов А.А.</t>
   </si>
   <si>
     <t>РЕЗУЛЬТАТ  РЕКТАЛЬНОГО ИССЛЕДОВАНИЯ КОРОВ на</t>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>Составил: главный ветеринарный врач ООО "Агро-Нептун"</t>
-  </si>
-  <si>
-    <t>Радаев А.И.</t>
   </si>
   <si>
     <t>08.03.2020 - 14.03.2020</t>
@@ -789,21 +783,72 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,15 +856,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,21 +870,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,33 +877,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1179,8 @@
   </sheetPr>
   <dimension ref="A1:AF1046262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1209,24 +1203,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="94">
+      <c r="A1" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="88">
         <v>43934</v>
       </c>
-      <c r="N1" s="94"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -1247,24 +1241,24 @@
       <c r="AF1" s="13"/>
     </row>
     <row r="2" spans="1:32" s="14" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="96"/>
+      <c r="A2" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="90"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -1289,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>4</v>
@@ -1319,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>11</v>
@@ -1345,38 +1339,38 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="A5" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="G5" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
       <c r="M5" s="77"/>
       <c r="N5" s="76"/>
       <c r="P5" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="110"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1393,20 +1387,20 @@
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
       <c r="F8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108" t="s">
+      <c r="J8" s="84"/>
+      <c r="K8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="105"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="34" t="s">
         <v>6</v>
       </c>
@@ -1426,17 +1420,17 @@
       <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="42"/>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -1451,20 +1445,20 @@
       <c r="X9" s="47"/>
     </row>
     <row r="10" spans="1:32" s="48" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="42"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
@@ -1479,39 +1473,39 @@
       <c r="X10" s="47"/>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="93"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:32" s="64" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -1547,22 +1541,22 @@
       <c r="AD13" s="63"/>
     </row>
     <row r="16" spans="1:32" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="65"/>
@@ -1617,9 +1611,7 @@
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="71" t="s">
-        <v>15</v>
-      </c>
+      <c r="I18" s="71"/>
       <c r="J18" s="71"/>
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
@@ -1669,22 +1661,22 @@
       <c r="AA19" s="71"/>
     </row>
     <row r="20" spans="1:27" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="65"/>
@@ -1790,7 +1782,7 @@
     </row>
     <row r="24" spans="1:27" s="71" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -1799,9 +1791,7 @@
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
       <c r="H24" s="75"/>
-      <c r="I24" s="75" t="s">
-        <v>32</v>
-      </c>
+      <c r="I24" s="75"/>
       <c r="J24" s="75"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
@@ -1841,18 +1831,6 @@
     <sortCondition ref="A4:A46"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
     <mergeCell ref="A16:N16"/>
     <mergeCell ref="A20:N20"/>
     <mergeCell ref="K10:L10"/>
@@ -1868,6 +1846,18 @@
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="F12:M12"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
